--- a/biology/Botanique/Tiarella_cordifolia/Tiarella_cordifolia.xlsx
+++ b/biology/Botanique/Tiarella_cordifolia/Tiarella_cordifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tiarella cordifolia
-La tiarelle cordifoliée (Tiarella cordifolia) est une espèce de plantes à fleurs de la famille des Saxifragaceae. C'est une petite plante herbacée vivace originaire des milieux forestiers nord-américains, où elle produit de magnifiques couvre-sols, mais l’espèce est menacée dans quelques états[3].
+La tiarelle cordifoliée (Tiarella cordifolia) est une espèce de plantes à fleurs de la famille des Saxifragaceae. C'est une petite plante herbacée vivace originaire des milieux forestiers nord-américains, où elle produit de magnifiques couvre-sols, mais l’espèce est menacée dans quelques états.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste des variétés et sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (11 octobre 2021)[4] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (11 octobre 2021) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Tiarella cordifolia subsp. collina Wherry
 variété Tiarella cordifolia var. austrina Lakela
 variété Tiarella cordifolia var. bracteata Farw.
@@ -549,12 +563,15 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Feuilles.
-La tiarelle cordifoliée est une plante herbacée à rhizome. La feuille vert clair, légèrement pubescente, est portée sur un long pétiole. Elle est cordée à la base et possède de trois à cinq lobes inégalement dentés, ce qui lui confère une certaine ressemblance avec l’érable. Elle mesure de 5 à 10 cm de longueur et de 3 à 8 cm de largeur[5].
-Appareil reproducteur
-			Fleurs.
-La floraison très printanière apparaît sur une hampe de 15 à 20 cm de hauteur, grêle et pubescente. Les fleurs, menues, sont blanches et mesurent de 5 à 6 mm de diamètre. Elles sont réunies en une grappe terminale. Le fruit est une capsule membraneuse fléchie ayant la forme d’une tiare (un diadème ou un turban)[5].
+La tiarelle cordifoliée est une plante herbacée à rhizome. La feuille vert clair, légèrement pubescente, est portée sur un long pétiole. Elle est cordée à la base et possède de trois à cinq lobes inégalement dentés, ce qui lui confère une certaine ressemblance avec l’érable. Elle mesure de 5 à 10 cm de longueur et de 3 à 8 cm de largeur.
 </t>
         </is>
       </c>
@@ -580,12 +597,53 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Fleurs.
+La floraison très printanière apparaît sur une hampe de 15 à 20 cm de hauteur, grêle et pubescente. Les fleurs, menues, sont blanches et mesurent de 5 à 6 mm de diamètre. Elles sont réunies en une grappe terminale. Le fruit est une capsule membraneuse fléchie ayant la forme d’une tiare (un diadème ou un turban).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tiarella_cordifolia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tiarella_cordifolia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle pousse à l'ombre au la mi-ombre, dans un sol fertile, frais et légèrement acide[6]. Elle pousse à l'état sauvage dans les Maritimes, au Québec et en Ontario[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle pousse à l'ombre au la mi-ombre, dans un sol fertile, frais et légèrement acide. Elle pousse à l'état sauvage dans les Maritimes, au Québec et en Ontario.
 </t>
         </is>
       </c>
